--- a/bioinfo-m2/Results/Organelles/Total_Land Plants.xlsx
+++ b/bioinfo-m2/Results/Organelles/Total_Land Plants.xlsx
@@ -32,7 +32,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
@@ -480,31 +480,31 @@
         <v>18</v>
       </c>
       <c r="B2" t="n" s="6">
-        <v>719757.0</v>
+        <v>721860.0</v>
       </c>
       <c r="C2" t="n" s="7">
-        <v>4.049494098063924</v>
+        <v>4.049246820233939</v>
       </c>
       <c r="D2" t="n" s="6">
-        <v>652634.0</v>
+        <v>654624.0</v>
       </c>
       <c r="E2" t="n" s="7">
-        <v>3.6718469305555232</v>
+        <v>3.672088979094037</v>
       </c>
       <c r="F2" t="n" s="6">
-        <v>640819.0</v>
+        <v>642761.0</v>
       </c>
       <c r="G2" t="n" s="7">
-        <v>3.605373422456782</v>
+        <v>3.605543921841335</v>
       </c>
       <c r="H2" t="n" s="6">
-        <v>38963.0</v>
+        <v>39065.0</v>
       </c>
       <c r="I2" t="n" s="6">
-        <v>25555.0</v>
+        <v>25637.0</v>
       </c>
       <c r="J2" t="n" s="6">
-        <v>23714.0</v>
+        <v>23782.0</v>
       </c>
       <c r="M2" t="s" s="3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="8">
-        <v>192026.0</v>
+        <v>192642.0</v>
       </c>
       <c r="C3" t="n" s="9">
-        <v>1.080375951431974</v>
+        <v>1.0806181336318765</v>
       </c>
       <c r="D3" t="n" s="8">
-        <v>284816.0</v>
+        <v>285675.0</v>
       </c>
       <c r="E3" t="n" s="9">
-        <v>1.6024306967965227</v>
+        <v>1.6024832867458099</v>
       </c>
       <c r="F3" t="n" s="8">
-        <v>322495.0</v>
+        <v>323470.0</v>
       </c>
       <c r="G3" t="n" s="9">
-        <v>1.8144201434027392</v>
+        <v>1.8144929334511843</v>
       </c>
       <c r="H3" t="n" s="10">
-        <v>11798.0</v>
+        <v>11823.0</v>
       </c>
       <c r="I3" t="n" s="10">
-        <v>26557.0</v>
+        <v>26646.0</v>
       </c>
       <c r="J3" t="n" s="10">
-        <v>39284.0</v>
+        <v>39390.0</v>
       </c>
     </row>
     <row r="4">
@@ -550,37 +550,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>288140.0</v>
+        <v>288884.0</v>
       </c>
       <c r="C4" t="n" s="7">
-        <v>1.6211321729641244</v>
+        <v>1.6204840528862396</v>
       </c>
       <c r="D4" t="n" s="6">
-        <v>494351.0</v>
+        <v>495815.0</v>
       </c>
       <c r="E4" t="n" s="7">
-        <v>2.7813157174879843</v>
+        <v>2.7812558005351313</v>
       </c>
       <c r="F4" t="n" s="6">
-        <v>271431.0</v>
+        <v>272258.0</v>
       </c>
       <c r="G4" t="n" s="7">
-        <v>1.5271240606643481</v>
+        <v>1.527221124294533</v>
       </c>
       <c r="H4" t="n" s="6">
-        <v>19097.0</v>
+        <v>19135.0</v>
       </c>
       <c r="I4" t="n" s="6">
-        <v>40457.0</v>
+        <v>40570.0</v>
       </c>
       <c r="J4" t="n" s="6">
-        <v>15561.0</v>
+        <v>15617.0</v>
       </c>
       <c r="M4" t="s" s="3">
         <v>2</v>
       </c>
       <c r="N4" t="n" s="1">
-        <v>4.4451338E7</v>
+        <v>4.4583932E7</v>
       </c>
     </row>
     <row r="5">
@@ -588,31 +588,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="n" s="8">
-        <v>631845.0</v>
+        <v>633869.0</v>
       </c>
       <c r="C5" t="n" s="9">
-        <v>3.554883937761217</v>
+        <v>3.555664578581534</v>
       </c>
       <c r="D5" t="n" s="8">
-        <v>428706.0</v>
+        <v>429985.0</v>
       </c>
       <c r="E5" t="n" s="9">
-        <v>2.4119840679626496</v>
+        <v>2.411984864098703</v>
       </c>
       <c r="F5" t="n" s="8">
-        <v>570021.0</v>
+        <v>571821.0</v>
       </c>
       <c r="G5" t="n" s="9">
-        <v>3.2070499839147053</v>
+        <v>3.2076086304726554</v>
       </c>
       <c r="H5" t="n" s="10">
-        <v>29047.0</v>
+        <v>29124.0</v>
       </c>
       <c r="I5" t="n" s="10">
-        <v>11950.0</v>
+        <v>11978.0</v>
       </c>
       <c r="J5" t="n" s="10">
-        <v>35945.0</v>
+        <v>36046.0</v>
       </c>
     </row>
     <row r="6">
@@ -620,37 +620,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>258271.0</v>
+        <v>259087.0</v>
       </c>
       <c r="C6" t="n" s="7">
-        <v>1.4530833186770922</v>
+        <v>1.4533388896932236</v>
       </c>
       <c r="D6" t="n" s="6">
-        <v>210563.0</v>
+        <v>211222.0</v>
       </c>
       <c r="E6" t="n" s="7">
-        <v>1.184668750384691</v>
+        <v>1.1848419525440568</v>
       </c>
       <c r="F6" t="n" s="6">
-        <v>266656.0</v>
+        <v>267519.0</v>
       </c>
       <c r="G6" t="n" s="7">
-        <v>1.5002589738110694</v>
+        <v>1.5006378800628417</v>
       </c>
       <c r="H6" t="n" s="6">
-        <v>33263.0</v>
+        <v>33347.0</v>
       </c>
       <c r="I6" t="n" s="6">
-        <v>18098.0</v>
+        <v>18142.0</v>
       </c>
       <c r="J6" t="n" s="6">
-        <v>31132.0</v>
+        <v>31227.0</v>
       </c>
       <c r="M6" t="s" s="3">
         <v>3</v>
       </c>
       <c r="N6" t="n" s="1">
-        <v>192026.0</v>
+        <v>192642.0</v>
       </c>
     </row>
     <row r="7">
@@ -658,31 +658,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="n" s="8">
-        <v>160684.0</v>
+        <v>161157.0</v>
       </c>
       <c r="C7" t="n" s="9">
-        <v>0.9040397101428727</v>
+        <v>0.904004197224449</v>
       </c>
       <c r="D7" t="n" s="8">
-        <v>111229.0</v>
+        <v>111555.0</v>
       </c>
       <c r="E7" t="n" s="9">
-        <v>0.6257961770897015</v>
+        <v>0.6257636231834386</v>
       </c>
       <c r="F7" t="n" s="8">
-        <v>207142.0</v>
+        <v>207755.0</v>
       </c>
       <c r="G7" t="n" s="9">
-        <v>1.1654215331857243</v>
+        <v>1.1653939450000026</v>
       </c>
       <c r="H7" t="n" s="10">
-        <v>28498.0</v>
+        <v>28578.0</v>
       </c>
       <c r="I7" t="n" s="10">
-        <v>14628.0</v>
+        <v>14677.0</v>
       </c>
       <c r="J7" t="n" s="10">
-        <v>37760.0</v>
+        <v>37871.0</v>
       </c>
     </row>
     <row r="8">
@@ -690,37 +690,37 @@
         <v>24</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>107584.0</v>
+        <v>107896.0</v>
       </c>
       <c r="C8" t="n" s="7">
-        <v>0.6052886919420155</v>
+        <v>0.605238598780873</v>
       </c>
       <c r="D8" t="n" s="6">
-        <v>129725.0</v>
+        <v>130131.0</v>
       </c>
       <c r="E8" t="n" s="7">
-        <v>0.7298583019982336</v>
+        <v>0.7299650042444</v>
       </c>
       <c r="F8" t="n" s="6">
-        <v>162175.0</v>
+        <v>162694.0</v>
       </c>
       <c r="G8" t="n" s="7">
-        <v>0.9124283686765352</v>
+        <v>0.9126259415553437</v>
       </c>
       <c r="H8" t="n" s="6">
-        <v>25367.0</v>
+        <v>25425.0</v>
       </c>
       <c r="I8" t="n" s="6">
-        <v>27552.0</v>
+        <v>27626.0</v>
       </c>
       <c r="J8" t="n" s="6">
-        <v>39290.0</v>
+        <v>39398.0</v>
       </c>
       <c r="M8" t="s" s="3">
         <v>4</v>
       </c>
       <c r="N8" t="n" s="1">
-        <v>63617.0</v>
+        <v>63719.0</v>
       </c>
     </row>
     <row r="9">
@@ -728,31 +728,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="n" s="8">
-        <v>383242.0</v>
+        <v>384297.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>2.15619468394224</v>
+        <v>2.1556997274754686</v>
       </c>
       <c r="D9" t="n" s="8">
-        <v>125671.0</v>
+        <v>126049.0</v>
       </c>
       <c r="E9" t="n" s="9">
-        <v>0.7070497026048951</v>
+        <v>0.7070671770754269</v>
       </c>
       <c r="F9" t="n" s="8">
-        <v>198083.0</v>
+        <v>198752.0</v>
       </c>
       <c r="G9" t="n" s="9">
-        <v>1.1144538218131903</v>
+        <v>1.1148919513688744</v>
       </c>
       <c r="H9" t="n" s="10">
-        <v>53097.0</v>
+        <v>53222.0</v>
       </c>
       <c r="I9" t="n" s="10">
-        <v>5057.0</v>
+        <v>5066.0</v>
       </c>
       <c r="J9" t="n" s="10">
-        <v>13475.0</v>
+        <v>13541.0</v>
       </c>
     </row>
     <row r="10">
@@ -760,31 +760,31 @@
         <v>26</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>310429.0</v>
+        <v>311384.0</v>
       </c>
       <c r="C10" t="n" s="7">
-        <v>1.746534460057889</v>
+        <v>1.7466969659930245</v>
       </c>
       <c r="D10" t="n" s="6">
-        <v>292391.0</v>
+        <v>293202.0</v>
       </c>
       <c r="E10" t="n" s="7">
-        <v>1.645049133008792</v>
+        <v>1.644705713277133</v>
       </c>
       <c r="F10" t="n" s="6">
-        <v>546044.0</v>
+        <v>547726.0</v>
       </c>
       <c r="G10" t="n" s="7">
-        <v>3.072150677635949</v>
+        <v>3.0724486241923006</v>
       </c>
       <c r="H10" t="n" s="6">
-        <v>19247.0</v>
+        <v>19304.0</v>
       </c>
       <c r="I10" t="n" s="6">
-        <v>16244.0</v>
+        <v>16276.0</v>
       </c>
       <c r="J10" t="n" s="6">
-        <v>43500.0</v>
+        <v>43621.0</v>
       </c>
       <c r="M10" t="s" s="3">
         <v>5</v>
@@ -798,31 +798,31 @@
         <v>27</v>
       </c>
       <c r="B11" t="n" s="8">
-        <v>94579.0</v>
+        <v>94826.0</v>
       </c>
       <c r="C11" t="n" s="9">
-        <v>0.5321200103657039</v>
+        <v>0.531922919922843</v>
       </c>
       <c r="D11" t="n" s="8">
-        <v>95839.0</v>
+        <v>96039.0</v>
       </c>
       <c r="E11" t="n" s="9">
-        <v>0.5392090175772497</v>
+        <v>0.5387271983049998</v>
       </c>
       <c r="F11" t="n" s="8">
-        <v>326830.0</v>
+        <v>327794.0</v>
       </c>
       <c r="G11" t="n" s="9">
-        <v>1.8388097039281766</v>
+        <v>1.838748250618906</v>
       </c>
       <c r="H11" t="n" s="10">
-        <v>12739.0</v>
+        <v>12786.0</v>
       </c>
       <c r="I11" t="n" s="10">
-        <v>15658.0</v>
+        <v>15694.0</v>
       </c>
       <c r="J11" t="n" s="10">
-        <v>54815.0</v>
+        <v>54978.0</v>
       </c>
     </row>
     <row r="12">
@@ -830,31 +830,31 @@
         <v>28</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>118118.0</v>
+        <v>118464.0</v>
       </c>
       <c r="C12" t="n" s="7">
-        <v>0.664555042709018</v>
+        <v>0.6645194017014286</v>
       </c>
       <c r="D12" t="n" s="6">
-        <v>202814.0</v>
+        <v>203369.0</v>
       </c>
       <c r="E12" t="n" s="7">
-        <v>1.1410713560336847</v>
+        <v>1.1407908411383865</v>
       </c>
       <c r="F12" t="n" s="6">
-        <v>354796.0</v>
+        <v>355784.0</v>
       </c>
       <c r="G12" t="n" s="7">
-        <v>1.9961519068472946</v>
+        <v>1.995757114523746</v>
       </c>
       <c r="H12" t="n" s="6">
-        <v>13359.0</v>
+        <v>13401.0</v>
       </c>
       <c r="I12" t="n" s="6">
-        <v>21343.0</v>
+        <v>21393.0</v>
       </c>
       <c r="J12" t="n" s="6">
-        <v>48496.0</v>
+        <v>48625.0</v>
       </c>
       <c r="M12" t="s" s="3">
         <v>7</v>
@@ -868,31 +868,31 @@
         <v>29</v>
       </c>
       <c r="B13" t="n" s="8">
-        <v>288322.0</v>
+        <v>289172.0</v>
       </c>
       <c r="C13" t="n" s="9">
-        <v>1.6221561406724587</v>
+        <v>1.6220995781740066</v>
       </c>
       <c r="D13" t="n" s="8">
-        <v>114031.0</v>
+        <v>114348.0</v>
       </c>
       <c r="E13" t="n" s="9">
-        <v>0.6415607788410913</v>
+        <v>0.6414308527970941</v>
       </c>
       <c r="F13" t="n" s="8">
-        <v>294269.0</v>
+        <v>295148.0</v>
       </c>
       <c r="G13" t="n" s="9">
-        <v>1.6556151294717147</v>
+        <v>1.6556217278951686</v>
       </c>
       <c r="H13" t="n" s="10">
-        <v>32033.0</v>
+        <v>32128.0</v>
       </c>
       <c r="I13" t="n" s="10">
-        <v>6000.0</v>
+        <v>6020.0</v>
       </c>
       <c r="J13" t="n" s="10">
-        <v>40046.0</v>
+        <v>40158.0</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         <v>30</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>441038.0</v>
+        <v>442490.0</v>
       </c>
       <c r="C14" t="n" s="7">
-        <v>2.481366319496604</v>
+        <v>2.482131196472052</v>
       </c>
       <c r="D14" t="n" s="6">
-        <v>549324.0</v>
+        <v>551118.0</v>
       </c>
       <c r="E14" t="n" s="7">
-        <v>3.0906046011707664</v>
+        <v>3.0914759220259986</v>
       </c>
       <c r="F14" t="n" s="6">
-        <v>211499.0</v>
+        <v>212112.0</v>
       </c>
       <c r="G14" t="n" s="7">
-        <v>1.1899348700275538</v>
+        <v>1.1898343744402806</v>
       </c>
       <c r="H14" t="n" s="6">
-        <v>30414.0</v>
+        <v>30506.0</v>
       </c>
       <c r="I14" t="n" s="6">
-        <v>39107.0</v>
+        <v>39214.0</v>
       </c>
       <c r="J14" t="n" s="6">
-        <v>8949.0</v>
+        <v>8972.0</v>
       </c>
     </row>
     <row r="15">
@@ -932,31 +932,31 @@
         <v>31</v>
       </c>
       <c r="B15" t="n" s="8">
-        <v>294655.0</v>
+        <v>295601.0</v>
       </c>
       <c r="C15" t="n" s="9">
-        <v>1.6577868412047756</v>
+        <v>1.6581628145457186</v>
       </c>
       <c r="D15" t="n" s="8">
-        <v>474476.0</v>
+        <v>475987.0</v>
       </c>
       <c r="E15" t="n" s="9">
-        <v>2.6694950680201495</v>
+        <v>2.670031372042628</v>
       </c>
       <c r="F15" t="n" s="8">
-        <v>333832.0</v>
+        <v>334882.0</v>
       </c>
       <c r="G15" t="n" s="9">
-        <v>1.8782043297180522</v>
+        <v>1.8785081229789458</v>
       </c>
       <c r="H15" t="n" s="10">
-        <v>22740.0</v>
+        <v>22806.0</v>
       </c>
       <c r="I15" t="n" s="10">
-        <v>36526.0</v>
+        <v>36626.0</v>
       </c>
       <c r="J15" t="n" s="10">
-        <v>22594.0</v>
+        <v>22649.0</v>
       </c>
     </row>
     <row r="16">
@@ -964,31 +964,31 @@
         <v>32</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>414328.0</v>
+        <v>415599.0</v>
       </c>
       <c r="C16" t="n" s="7">
-        <v>2.3310906190042333</v>
+        <v>2.331287132189628</v>
       </c>
       <c r="D16" t="n" s="6">
-        <v>493736.0</v>
+        <v>495308.0</v>
       </c>
       <c r="E16" t="n" s="7">
-        <v>2.777855606825206</v>
+        <v>2.7784118028931255</v>
       </c>
       <c r="F16" t="n" s="6">
-        <v>160374.0</v>
+        <v>160904.0</v>
       </c>
       <c r="G16" t="n" s="7">
-        <v>0.9022955893209845</v>
+        <v>0.9025850031348484</v>
       </c>
       <c r="H16" t="n" s="6">
-        <v>39267.0</v>
+        <v>39369.0</v>
       </c>
       <c r="I16" t="n" s="6">
-        <v>29543.0</v>
+        <v>29641.0</v>
       </c>
       <c r="J16" t="n" s="6">
-        <v>5822.0</v>
+        <v>5836.0</v>
       </c>
     </row>
     <row r="17">
@@ -996,31 +996,31 @@
         <v>33</v>
       </c>
       <c r="B17" t="n" s="8">
-        <v>716094.0</v>
+        <v>718279.0</v>
       </c>
       <c r="C17" t="n" s="9">
-        <v>4.028885341384645</v>
+        <v>4.029159333930143</v>
       </c>
       <c r="D17" t="n" s="8">
-        <v>503283.0</v>
+        <v>504837.0</v>
       </c>
       <c r="E17" t="n" s="9">
-        <v>2.8315689019431645</v>
+        <v>2.8318643739595495</v>
       </c>
       <c r="F17" t="n" s="8">
-        <v>620382.0</v>
+        <v>622231.0</v>
       </c>
       <c r="G17" t="n" s="9">
-        <v>3.49039085072475</v>
+        <v>3.4903816504599003</v>
       </c>
       <c r="H17" t="n" s="10">
-        <v>40108.0</v>
+        <v>40224.0</v>
       </c>
       <c r="I17" t="n" s="10">
-        <v>8161.0</v>
+        <v>8182.0</v>
       </c>
       <c r="J17" t="n" s="10">
-        <v>26282.0</v>
+        <v>26340.0</v>
       </c>
     </row>
     <row r="18">
@@ -1028,31 +1028,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>457394.0</v>
+        <v>458828.0</v>
       </c>
       <c r="C18" t="n" s="7">
-        <v>2.5733883845379073</v>
+        <v>2.5737785997759914</v>
       </c>
       <c r="D18" t="n" s="6">
-        <v>351067.0</v>
+        <v>352131.0</v>
       </c>
       <c r="E18" t="n" s="7">
-        <v>1.975171821218839</v>
+        <v>1.975265746898009</v>
       </c>
       <c r="F18" t="n" s="6">
-        <v>319085.0</v>
+        <v>320062.0</v>
       </c>
       <c r="G18" t="n" s="7">
-        <v>1.7952348143619685</v>
+        <v>1.7953758842126102</v>
       </c>
       <c r="H18" t="n" s="6">
-        <v>32630.0</v>
+        <v>32731.0</v>
       </c>
       <c r="I18" t="n" s="6">
-        <v>27403.0</v>
+        <v>27477.0</v>
       </c>
       <c r="J18" t="n" s="6">
-        <v>17073.0</v>
+        <v>17112.0</v>
       </c>
     </row>
     <row r="19">
@@ -1060,31 +1060,31 @@
         <v>35</v>
       </c>
       <c r="B19" t="n" s="8">
-        <v>96187.0</v>
+        <v>96489.0</v>
       </c>
       <c r="C19" t="n" s="9">
-        <v>0.5411669338547241</v>
+        <v>0.5412514565671356</v>
       </c>
       <c r="D19" t="n" s="8">
-        <v>149891.0</v>
+        <v>150418.0</v>
       </c>
       <c r="E19" t="n" s="9">
-        <v>0.8433161745601637</v>
+        <v>0.8437641761642819</v>
       </c>
       <c r="F19" t="n" s="8">
-        <v>117784.0</v>
+        <v>118127.0</v>
       </c>
       <c r="G19" t="n" s="9">
-        <v>0.6626758931783384</v>
+        <v>0.6626290127362292</v>
       </c>
       <c r="H19" t="n" s="10">
-        <v>25861.0</v>
+        <v>25919.0</v>
       </c>
       <c r="I19" t="n" s="10">
-        <v>41827.0</v>
+        <v>41952.0</v>
       </c>
       <c r="J19" t="n" s="10">
-        <v>32790.0</v>
+        <v>32852.0</v>
       </c>
     </row>
     <row r="20">
@@ -1092,31 +1092,31 @@
         <v>36</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>147963.0</v>
+        <v>148388.0</v>
       </c>
       <c r="C20" t="n" s="7">
-        <v>0.8324688682872586</v>
+        <v>0.8323769666706474</v>
       </c>
       <c r="D20" t="n" s="6">
-        <v>296322.0</v>
+        <v>297181.0</v>
       </c>
       <c r="E20" t="n" s="7">
-        <v>1.6671657102695747</v>
+        <v>1.6670257657772172</v>
       </c>
       <c r="F20" t="n" s="6">
-        <v>103084.0</v>
+        <v>103378.0</v>
       </c>
       <c r="G20" t="n" s="7">
-        <v>0.5799708090436377</v>
+        <v>0.5798950458290306</v>
       </c>
       <c r="H20" t="n" s="6">
-        <v>19202.0</v>
+        <v>19259.0</v>
       </c>
       <c r="I20" t="n" s="6">
-        <v>47804.0</v>
+        <v>47942.0</v>
       </c>
       <c r="J20" t="n" s="6">
-        <v>17718.0</v>
+        <v>17764.0</v>
       </c>
     </row>
     <row r="21">
@@ -1124,31 +1124,31 @@
         <v>37</v>
       </c>
       <c r="B21" t="n" s="8">
-        <v>297967.0</v>
+        <v>298949.0</v>
       </c>
       <c r="C21" t="n" s="9">
-        <v>1.6764208030179817</v>
+        <v>1.676943296016008</v>
       </c>
       <c r="D21" t="n" s="8">
-        <v>217747.0</v>
+        <v>218420.0</v>
       </c>
       <c r="E21" t="n" s="9">
-        <v>1.2250873438829013</v>
+        <v>1.2252188658126184</v>
       </c>
       <c r="F21" t="n" s="8">
-        <v>272508.0</v>
+        <v>273364.0</v>
       </c>
       <c r="G21" t="n" s="9">
-        <v>1.5331834739713597</v>
+        <v>1.533425190156582</v>
       </c>
       <c r="H21" t="n" s="10">
-        <v>31530.0</v>
+        <v>31615.0</v>
       </c>
       <c r="I21" t="n" s="10">
-        <v>23435.0</v>
+        <v>23489.0</v>
       </c>
       <c r="J21" t="n" s="10">
-        <v>25737.0</v>
+        <v>25818.0</v>
       </c>
     </row>
     <row r="22">
@@ -1156,31 +1156,31 @@
         <v>38</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>208804.0</v>
+        <v>209442.0</v>
       </c>
       <c r="C22" t="n" s="7">
-        <v>1.1747722712695252</v>
+        <v>1.1748571087516089</v>
       </c>
       <c r="D22" t="n" s="6">
-        <v>221128.0</v>
+        <v>221755.0</v>
       </c>
       <c r="E22" t="n" s="7">
-        <v>1.2441095132338824</v>
+        <v>1.2439264242664463</v>
       </c>
       <c r="F22" t="n" s="6">
-        <v>155034.0</v>
+        <v>155535.0</v>
       </c>
       <c r="G22" t="n" s="7">
-        <v>0.8722517016149097</v>
+        <v>0.8724677973361671</v>
       </c>
       <c r="H22" t="n" s="6">
-        <v>34965.0</v>
+        <v>35078.0</v>
       </c>
       <c r="I22" t="n" s="6">
-        <v>33148.0</v>
+        <v>33221.0</v>
       </c>
       <c r="J22" t="n" s="6">
-        <v>18095.0</v>
+        <v>18155.0</v>
       </c>
     </row>
     <row r="23">
@@ -1188,31 +1188,31 @@
         <v>39</v>
       </c>
       <c r="B23" t="n" s="8">
-        <v>163762.0</v>
+        <v>164173.0</v>
       </c>
       <c r="C23" t="n" s="9">
-        <v>0.921357142045363</v>
+        <v>0.9209223370435629</v>
       </c>
       <c r="D23" t="n" s="8">
-        <v>134500.0</v>
+        <v>134904.0</v>
       </c>
       <c r="E23" t="n" s="9">
-        <v>0.7567233888515122</v>
+        <v>0.7567389702114526</v>
       </c>
       <c r="F23" t="n" s="8">
-        <v>121161.0</v>
+        <v>121504.0</v>
       </c>
       <c r="G23" t="n" s="9">
-        <v>0.6816755577445209</v>
+        <v>0.6815721686278564</v>
       </c>
       <c r="H23" t="n" s="10">
-        <v>42396.0</v>
+        <v>42499.0</v>
       </c>
       <c r="I23" t="n" s="10">
-        <v>31331.0</v>
+        <v>31425.0</v>
       </c>
       <c r="J23" t="n" s="10">
-        <v>27423.0</v>
+        <v>27509.0</v>
       </c>
     </row>
     <row r="24">
@@ -1220,31 +1220,31 @@
         <v>40</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>105398.0</v>
+        <v>105732.0</v>
       </c>
       <c r="C24" t="n" s="7">
-        <v>0.5929898270496036</v>
+        <v>0.5930997212714028</v>
       </c>
       <c r="D24" t="n" s="6">
-        <v>199749.0</v>
+        <v>200333.0</v>
       </c>
       <c r="E24" t="n" s="7">
-        <v>1.1238270646817896</v>
+        <v>1.1237605120631777</v>
       </c>
       <c r="F24" t="n" s="6">
-        <v>92041.0</v>
+        <v>92320.0</v>
       </c>
       <c r="G24" t="n" s="7">
-        <v>0.5178407244110188</v>
+        <v>0.5178656061341496</v>
       </c>
       <c r="H24" t="n" s="6">
-        <v>24051.0</v>
+        <v>24111.0</v>
       </c>
       <c r="I24" t="n" s="6">
-        <v>46846.0</v>
+        <v>46969.0</v>
       </c>
       <c r="J24" t="n" s="6">
-        <v>18962.0</v>
+        <v>19012.0</v>
       </c>
     </row>
     <row r="25">
@@ -1252,31 +1252,31 @@
         <v>41</v>
       </c>
       <c r="B25" t="n" s="8">
-        <v>292514.0</v>
+        <v>293364.0</v>
       </c>
       <c r="C25" t="n" s="9">
-        <v>1.6457411551413474</v>
+        <v>1.6456144462515019</v>
       </c>
       <c r="D25" t="n" s="8">
-        <v>146064.0</v>
+        <v>146439.0</v>
       </c>
       <c r="E25" t="n" s="9">
-        <v>0.8217847217041434</v>
+        <v>0.8214441236641976</v>
       </c>
       <c r="F25" t="n" s="8">
-        <v>155683.0</v>
+        <v>156095.0</v>
       </c>
       <c r="G25" t="n" s="9">
-        <v>0.8759031029484757</v>
+        <v>0.8756090965068248</v>
       </c>
       <c r="H25" t="n" s="10">
-        <v>47654.0</v>
+        <v>47798.0</v>
       </c>
       <c r="I25" t="n" s="10">
-        <v>19160.0</v>
+        <v>19215.0</v>
       </c>
       <c r="J25" t="n" s="10">
-        <v>20405.0</v>
+        <v>20461.0</v>
       </c>
     </row>
     <row r="26">
@@ -1284,31 +1284,31 @@
         <v>42</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>218758.0</v>
+        <v>219485.0</v>
       </c>
       <c r="C26" t="n" s="7">
-        <v>1.2307754282407368</v>
+        <v>1.231192943699673</v>
       </c>
       <c r="D26" t="n" s="6">
-        <v>165034.0</v>
+        <v>165502.0</v>
       </c>
       <c r="E26" t="n" s="7">
-        <v>0.9285136636113045</v>
+        <v>0.9283773131110703</v>
       </c>
       <c r="F26" t="n" s="6">
-        <v>249733.0</v>
+        <v>250497.0</v>
       </c>
       <c r="G26" t="n" s="7">
-        <v>1.40504685552457</v>
+        <v>1.4051536042004553</v>
       </c>
       <c r="H26" t="n" s="6">
-        <v>31700.0</v>
+        <v>31799.0</v>
       </c>
       <c r="I26" t="n" s="6">
-        <v>21227.0</v>
+        <v>21273.0</v>
       </c>
       <c r="J26" t="n" s="6">
-        <v>33179.0</v>
+        <v>33263.0</v>
       </c>
     </row>
     <row r="27">
@@ -1316,31 +1316,31 @@
         <v>43</v>
       </c>
       <c r="B27" t="n" s="8">
-        <v>76221.0</v>
+        <v>76423.0</v>
       </c>
       <c r="C27" t="n" s="9">
-        <v>0.42883430053272203</v>
+        <v>0.42869197592710256</v>
       </c>
       <c r="D27" t="n" s="8">
-        <v>64213.0</v>
+        <v>64403.0</v>
       </c>
       <c r="E27" t="n" s="9">
-        <v>0.36127493656745097</v>
+        <v>0.3612662330140558</v>
       </c>
       <c r="F27" t="n" s="8">
-        <v>93266.0</v>
+        <v>93518.0</v>
       </c>
       <c r="G27" t="n" s="9">
-        <v>0.5247328147555772</v>
+        <v>0.5245857425742353</v>
       </c>
       <c r="H27" t="n" s="10">
-        <v>31744.0</v>
+        <v>31831.0</v>
       </c>
       <c r="I27" t="n" s="10">
-        <v>30959.0</v>
+        <v>31046.0</v>
       </c>
       <c r="J27" t="n" s="10">
-        <v>39353.0</v>
+        <v>39470.0</v>
       </c>
     </row>
     <row r="28">
@@ -1348,31 +1348,31 @@
         <v>44</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>76899.0</v>
+        <v>77132.0</v>
       </c>
       <c r="C28" t="n" s="7">
-        <v>0.43264886155607757</v>
+        <v>0.4326690850556675</v>
       </c>
       <c r="D28" t="n" s="6">
-        <v>178131.0</v>
+        <v>178652.0</v>
       </c>
       <c r="E28" t="n" s="7">
-        <v>1.002199955237983</v>
+        <v>1.00214174899348</v>
       </c>
       <c r="F28" t="n" s="6">
-        <v>146693.0</v>
+        <v>147195.0</v>
       </c>
       <c r="G28" t="n" s="7">
-        <v>0.8253235991137164</v>
+        <v>0.8256848775445855</v>
       </c>
       <c r="H28" t="n" s="6">
-        <v>15307.0</v>
+        <v>15342.0</v>
       </c>
       <c r="I28" t="n" s="6">
-        <v>40873.0</v>
+        <v>40974.0</v>
       </c>
       <c r="J28" t="n" s="6">
-        <v>31281.0</v>
+        <v>31369.0</v>
       </c>
     </row>
     <row r="29">
@@ -1380,31 +1380,31 @@
         <v>45</v>
       </c>
       <c r="B29" t="n" s="8">
-        <v>238779.0</v>
+        <v>239463.0</v>
       </c>
       <c r="C29" t="n" s="9">
-        <v>1.3434175023537192</v>
+        <v>1.3432587916128882</v>
       </c>
       <c r="D29" t="n" s="8">
-        <v>59140.0</v>
+        <v>59322.0</v>
       </c>
       <c r="E29" t="n" s="9">
-        <v>0.3327332432466798</v>
+        <v>0.3327645525031414</v>
       </c>
       <c r="F29" t="n" s="8">
-        <v>139974.0</v>
+        <v>140332.0</v>
       </c>
       <c r="G29" t="n" s="9">
-        <v>0.7875211868483387</v>
+        <v>0.7871871343156138</v>
       </c>
       <c r="H29" t="n" s="10">
-        <v>46076.0</v>
+        <v>46201.0</v>
       </c>
       <c r="I29" t="n" s="10">
-        <v>13381.0</v>
+        <v>13416.0</v>
       </c>
       <c r="J29" t="n" s="10">
-        <v>25764.0</v>
+        <v>25837.0</v>
       </c>
     </row>
     <row r="30">
@@ -1412,31 +1412,31 @@
         <v>46</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>271749.0</v>
+        <v>272521.0</v>
       </c>
       <c r="C30" t="n" s="7">
-        <v>1.5289131910558333</v>
+        <v>1.5286964130121812</v>
       </c>
       <c r="D30" t="n" s="6">
-        <v>415114.0</v>
+        <v>416321.0</v>
       </c>
       <c r="E30" t="n" s="7">
-        <v>2.3355128092171498</v>
+        <v>2.335337164334654</v>
       </c>
       <c r="F30" t="n" s="6">
-        <v>113782.0</v>
+        <v>114097.0</v>
       </c>
       <c r="G30" t="n" s="7">
-        <v>0.6401598559873811</v>
+        <v>0.640022877633103</v>
       </c>
       <c r="H30" t="n" s="6">
-        <v>20323.0</v>
+        <v>20386.0</v>
       </c>
       <c r="I30" t="n" s="6">
-        <v>46729.0</v>
+        <v>46862.0</v>
       </c>
       <c r="J30" t="n" s="6">
-        <v>6745.0</v>
+        <v>6769.0</v>
       </c>
     </row>
     <row r="31">
@@ -1444,31 +1444,31 @@
         <v>47</v>
       </c>
       <c r="B31" t="n" s="8">
-        <v>135687.0</v>
+        <v>136081.0</v>
       </c>
       <c r="C31" t="n" s="9">
-        <v>0.7634016837404843</v>
+        <v>0.7633413079326387</v>
       </c>
       <c r="D31" t="n" s="8">
-        <v>296464.0</v>
+        <v>297356.0</v>
       </c>
       <c r="E31" t="n" s="9">
-        <v>1.6679646301299236</v>
+        <v>1.6680074217680478</v>
       </c>
       <c r="F31" t="n" s="8">
-        <v>127664.0</v>
+        <v>128010.0</v>
       </c>
       <c r="G31" t="n" s="9">
-        <v>0.7182627116307766</v>
+        <v>0.7180673336355338</v>
       </c>
       <c r="H31" t="n" s="10">
-        <v>17595.0</v>
+        <v>17647.0</v>
       </c>
       <c r="I31" t="n" s="10">
-        <v>52248.0</v>
+        <v>52398.0</v>
       </c>
       <c r="J31" t="n" s="10">
-        <v>16208.0</v>
+        <v>16251.0</v>
       </c>
     </row>
     <row r="32">
@@ -1476,31 +1476,31 @@
         <v>48</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>124888.0</v>
+        <v>125261.0</v>
       </c>
       <c r="C32" t="n" s="7">
-        <v>0.7026443909805774</v>
+        <v>0.7026469203852871</v>
       </c>
       <c r="D32" t="n" s="6">
-        <v>322948.0</v>
+        <v>323849.0</v>
       </c>
       <c r="E32" t="n" s="7">
-        <v>1.8169688102811759</v>
+        <v>1.8166189198541831</v>
       </c>
       <c r="F32" t="n" s="6">
-        <v>67435.0</v>
+        <v>67616.0</v>
       </c>
       <c r="G32" t="n" s="7">
-        <v>0.3794025407226894</v>
+        <v>0.37928943700570467</v>
       </c>
       <c r="H32" t="n" s="6">
-        <v>17721.0</v>
+        <v>17767.0</v>
       </c>
       <c r="I32" t="n" s="6">
-        <v>54319.0</v>
+        <v>54467.0</v>
       </c>
       <c r="J32" t="n" s="6">
-        <v>13576.0</v>
+        <v>13609.0</v>
       </c>
     </row>
     <row r="33">
@@ -1508,31 +1508,31 @@
         <v>49</v>
       </c>
       <c r="B33" t="n" s="8">
-        <v>400770.0</v>
+        <v>401919.0</v>
       </c>
       <c r="C33" t="n" s="9">
-        <v>2.254810650929521</v>
+        <v>2.2545496810207024</v>
       </c>
       <c r="D33" t="n" s="8">
-        <v>425282.0</v>
+        <v>426507.0</v>
       </c>
       <c r="E33" t="n" s="9">
-        <v>2.392719972175084</v>
+        <v>2.3924751524637964</v>
       </c>
       <c r="F33" t="n" s="8">
-        <v>309119.0</v>
+        <v>309943.0</v>
       </c>
       <c r="G33" t="n" s="9">
-        <v>1.7391641430363611</v>
+        <v>1.7386137300913855</v>
       </c>
       <c r="H33" t="n" s="10">
-        <v>27288.0</v>
+        <v>27368.0</v>
       </c>
       <c r="I33" t="n" s="10">
-        <v>38485.0</v>
+        <v>38590.0</v>
       </c>
       <c r="J33" t="n" s="10">
-        <v>14512.0</v>
+        <v>14540.0</v>
       </c>
     </row>
     <row r="34">
@@ -1540,31 +1540,31 @@
         <v>50</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>683059.0</v>
+        <v>685114.0</v>
       </c>
       <c r="C34" t="n" s="7">
-        <v>3.8430239499295547</v>
+        <v>3.8431215000107417</v>
       </c>
       <c r="D34" t="n" s="6">
-        <v>365604.0</v>
+        <v>366737.0</v>
       </c>
       <c r="E34" t="n" s="7">
-        <v>2.056959835372998</v>
+        <v>2.057197560624129</v>
       </c>
       <c r="F34" t="n" s="6">
-        <v>422220.0</v>
+        <v>423442.0</v>
       </c>
       <c r="G34" t="n" s="7">
-        <v>2.375492559411788</v>
+        <v>2.37528214896725</v>
       </c>
       <c r="H34" t="n" s="6">
-        <v>45946.0</v>
+        <v>46061.0</v>
       </c>
       <c r="I34" t="n" s="6">
-        <v>19373.0</v>
+        <v>19426.0</v>
       </c>
       <c r="J34" t="n" s="6">
-        <v>15774.0</v>
+        <v>15810.0</v>
       </c>
     </row>
     <row r="35">
@@ -1572,31 +1572,31 @@
         <v>51</v>
       </c>
       <c r="B35" t="n" s="8">
-        <v>154643.0</v>
+        <v>155112.0</v>
       </c>
       <c r="C35" t="n" s="9">
-        <v>0.8700518589008506</v>
+        <v>0.8700949945697596</v>
       </c>
       <c r="D35" t="n" s="8">
-        <v>134911.0</v>
+        <v>135377.0</v>
       </c>
       <c r="E35" t="n" s="9">
-        <v>0.759035755489564</v>
+        <v>0.7593922461180975</v>
       </c>
       <c r="F35" t="n" s="8">
-        <v>143990.0</v>
+        <v>144360.0</v>
       </c>
       <c r="G35" t="n" s="9">
-        <v>0.810115990786091</v>
+        <v>0.8097820504931307</v>
       </c>
       <c r="H35" t="n" s="10">
-        <v>24692.0</v>
+        <v>24760.0</v>
       </c>
       <c r="I35" t="n" s="10">
-        <v>29897.0</v>
+        <v>30004.0</v>
       </c>
       <c r="J35" t="n" s="10">
-        <v>33016.0</v>
+        <v>33092.0</v>
       </c>
     </row>
     <row r="36">
@@ -1604,31 +1604,31 @@
         <v>52</v>
       </c>
       <c r="B36" t="n" s="6">
-        <v>268925.0</v>
+        <v>269639.0</v>
       </c>
       <c r="C36" t="n" s="7">
-        <v>1.5130248129880515</v>
+        <v>1.512529941208903</v>
       </c>
       <c r="D36" t="n" s="6">
-        <v>243564.0</v>
+        <v>244343.0</v>
       </c>
       <c r="E36" t="n" s="7">
-        <v>1.3703388511689942</v>
+        <v>1.3706329701000486</v>
       </c>
       <c r="F36" t="n" s="6">
-        <v>164139.0</v>
+        <v>164616.0</v>
       </c>
       <c r="G36" t="n" s="7">
-        <v>0.9234782180126272</v>
+        <v>0.9234073290660654</v>
       </c>
       <c r="H36" t="n" s="6">
-        <v>35066.0</v>
+        <v>35147.0</v>
       </c>
       <c r="I36" t="n" s="6">
-        <v>38633.0</v>
+        <v>38749.0</v>
       </c>
       <c r="J36" t="n" s="6">
-        <v>20047.0</v>
+        <v>20096.0</v>
       </c>
     </row>
     <row r="37">
@@ -1636,31 +1636,31 @@
         <v>53</v>
       </c>
       <c r="B37" t="n" s="8">
-        <v>582451.0</v>
+        <v>584312.0</v>
       </c>
       <c r="C37" t="n" s="9">
-        <v>3.276983602676224</v>
+        <v>3.277676430366737</v>
       </c>
       <c r="D37" t="n" s="8">
-        <v>242080.0</v>
+        <v>242849.0</v>
       </c>
       <c r="E37" t="n" s="9">
-        <v>1.361989576008729</v>
+        <v>1.3622524326697583</v>
       </c>
       <c r="F37" t="n" s="8">
-        <v>345502.0</v>
+        <v>346548.0</v>
       </c>
       <c r="G37" t="n" s="9">
-        <v>1.9438620393678452</v>
+        <v>1.943948116059112</v>
       </c>
       <c r="H37" t="n" s="10">
-        <v>39725.0</v>
+        <v>39847.0</v>
       </c>
       <c r="I37" t="n" s="10">
-        <v>14176.0</v>
+        <v>14211.0</v>
       </c>
       <c r="J37" t="n" s="10">
-        <v>27578.0</v>
+        <v>27641.0</v>
       </c>
     </row>
     <row r="38">
@@ -1668,31 +1668,31 @@
         <v>54</v>
       </c>
       <c r="B38" t="n" s="6">
-        <v>277710.0</v>
+        <v>278508.0</v>
       </c>
       <c r="C38" t="n" s="7">
-        <v>1.5624509466018843</v>
+        <v>1.5622802668241953</v>
       </c>
       <c r="D38" t="n" s="6">
-        <v>112870.0</v>
+        <v>113196.0</v>
       </c>
       <c r="E38" t="n" s="7">
-        <v>0.63502876505331</v>
+        <v>0.6349687516460267</v>
       </c>
       <c r="F38" t="n" s="6">
-        <v>138379.0</v>
+        <v>138752.0</v>
       </c>
       <c r="G38" t="n" s="7">
-        <v>0.7785474039099137</v>
+        <v>0.7783241830841152</v>
       </c>
       <c r="H38" t="n" s="6">
-        <v>48449.0</v>
+        <v>48588.0</v>
       </c>
       <c r="I38" t="n" s="6">
-        <v>13537.0</v>
+        <v>13572.0</v>
       </c>
       <c r="J38" t="n" s="6">
-        <v>15846.0</v>
+        <v>15894.0</v>
       </c>
     </row>
     <row r="39">
@@ -1700,31 +1700,31 @@
         <v>55</v>
       </c>
       <c r="B39" t="n" s="8">
-        <v>144373.0</v>
+        <v>144794.0</v>
       </c>
       <c r="C39" t="n" s="9">
-        <v>0.8122708239305529</v>
+        <v>0.8122165573503904</v>
       </c>
       <c r="D39" t="n" s="8">
-        <v>76806.0</v>
+        <v>77024.0</v>
       </c>
       <c r="E39" t="n" s="9">
-        <v>0.43212562530951115</v>
+        <v>0.4320632630727549</v>
       </c>
       <c r="F39" t="n" s="8">
-        <v>92992.0</v>
+        <v>93253.0</v>
       </c>
       <c r="G39" t="n" s="9">
-        <v>0.523191236996876</v>
+        <v>0.5230992349309775</v>
       </c>
       <c r="H39" t="n" s="10">
-        <v>42365.0</v>
+        <v>42480.0</v>
       </c>
       <c r="I39" t="n" s="10">
-        <v>21589.0</v>
+        <v>21644.0</v>
       </c>
       <c r="J39" t="n" s="10">
-        <v>32173.0</v>
+        <v>32254.0</v>
       </c>
     </row>
     <row r="40">
@@ -1732,31 +1732,31 @@
         <v>56</v>
       </c>
       <c r="B40" t="n" s="6">
-        <v>109071.0</v>
+        <v>109374.0</v>
       </c>
       <c r="C40" t="n" s="7">
-        <v>0.6136548456908795</v>
+        <v>0.6135293848062876</v>
       </c>
       <c r="D40" t="n" s="6">
-        <v>94537.0</v>
+        <v>94799.0</v>
       </c>
       <c r="E40" t="n" s="7">
-        <v>0.5318837101253191</v>
+        <v>0.5317714644271148</v>
       </c>
       <c r="F40" t="n" s="6">
-        <v>78608.0</v>
+        <v>78797.0</v>
       </c>
       <c r="G40" t="n" s="7">
-        <v>0.4422640308612615</v>
+        <v>0.44200884062556955</v>
       </c>
       <c r="H40" t="n" s="6">
-        <v>38874.0</v>
+        <v>38996.0</v>
       </c>
       <c r="I40" t="n" s="6">
-        <v>31962.0</v>
+        <v>32063.0</v>
       </c>
       <c r="J40" t="n" s="6">
-        <v>28760.0</v>
+        <v>28835.0</v>
       </c>
     </row>
     <row r="41">
@@ -1764,31 +1764,31 @@
         <v>57</v>
       </c>
       <c r="B41" t="n" s="8">
-        <v>399125.0</v>
+        <v>400313.0</v>
       </c>
       <c r="C41" t="n" s="9">
-        <v>2.2455555581811137</v>
+        <v>2.2455408837562802</v>
       </c>
       <c r="D41" t="n" s="8">
-        <v>73730.0</v>
+        <v>73893.0</v>
       </c>
       <c r="E41" t="n" s="9">
-        <v>0.41481944579942</v>
+        <v>0.4145000350310952</v>
       </c>
       <c r="F41" t="n" s="8">
-        <v>109330.0</v>
+        <v>109625.0</v>
       </c>
       <c r="G41" t="n" s="9">
-        <v>0.6151120305065861</v>
+        <v>0.6149373599702788</v>
       </c>
       <c r="H41" t="n" s="10">
-        <v>58207.0</v>
+        <v>58375.0</v>
       </c>
       <c r="I41" t="n" s="10">
-        <v>7712.0</v>
+        <v>7728.0</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>9907.0</v>
+        <v>9934.0</v>
       </c>
     </row>
     <row r="42">
@@ -1796,31 +1796,31 @@
         <v>58</v>
       </c>
       <c r="B42" t="n" s="6">
-        <v>456841.0</v>
+        <v>458306.0</v>
       </c>
       <c r="C42" t="n" s="7">
-        <v>2.570277098039507</v>
+        <v>2.5708504601919144</v>
       </c>
       <c r="D42" t="n" s="6">
-        <v>219624.0</v>
+        <v>220292.0</v>
       </c>
       <c r="E42" t="n" s="7">
-        <v>1.2356477141496247</v>
+        <v>1.2357197801831028</v>
       </c>
       <c r="F42" t="n" s="6">
-        <v>343542.0</v>
+        <v>344503.0</v>
       </c>
       <c r="G42" t="n" s="7">
-        <v>1.9328346948165518</v>
+        <v>1.9324767646234067</v>
       </c>
       <c r="H42" t="n" s="6">
-        <v>40787.0</v>
+        <v>40914.0</v>
       </c>
       <c r="I42" t="n" s="6">
-        <v>13478.0</v>
+        <v>13508.0</v>
       </c>
       <c r="J42" t="n" s="6">
-        <v>26886.0</v>
+        <v>26947.0</v>
       </c>
     </row>
     <row r="43">
@@ -1828,31 +1828,31 @@
         <v>59</v>
       </c>
       <c r="B43" t="n" s="8">
-        <v>125086.0</v>
+        <v>125430.0</v>
       </c>
       <c r="C43" t="n" s="9">
-        <v>0.7037583778281059</v>
+        <v>0.7035949195992892</v>
       </c>
       <c r="D43" t="n" s="8">
-        <v>105083.0</v>
+        <v>105381.0</v>
       </c>
       <c r="E43" t="n" s="9">
-        <v>0.5912175752467171</v>
+        <v>0.5911307998269368</v>
       </c>
       <c r="F43" t="n" s="8">
-        <v>192102.0</v>
+        <v>192626.0</v>
       </c>
       <c r="G43" t="n" s="9">
-        <v>1.0808035423431464</v>
+        <v>1.0805283822270004</v>
       </c>
       <c r="H43" t="n" s="10">
-        <v>22610.0</v>
+        <v>22677.0</v>
       </c>
       <c r="I43" t="n" s="10">
-        <v>18742.0</v>
+        <v>18797.0</v>
       </c>
       <c r="J43" t="n" s="10">
-        <v>47171.0</v>
+        <v>47308.0</v>
       </c>
     </row>
     <row r="44">
@@ -1860,31 +1860,31 @@
         <v>60</v>
       </c>
       <c r="B44" t="n" s="6">
-        <v>219332.0</v>
+        <v>219930.0</v>
       </c>
       <c r="C44" t="n" s="7">
-        <v>1.23400486485933</v>
+        <v>1.233689154647785</v>
       </c>
       <c r="D44" t="n" s="6">
-        <v>252384.0</v>
+        <v>253120.0</v>
       </c>
       <c r="E44" t="n" s="7">
-        <v>1.4199619016498144</v>
+        <v>1.4198672251373043</v>
       </c>
       <c r="F44" t="n" s="6">
-        <v>285004.0</v>
+        <v>285878.0</v>
       </c>
       <c r="G44" t="n" s="7">
-        <v>1.603488421682055</v>
+        <v>1.6036220076951733</v>
       </c>
       <c r="H44" t="n" s="6">
-        <v>25107.0</v>
+        <v>25171.0</v>
       </c>
       <c r="I44" t="n" s="6">
-        <v>28675.0</v>
+        <v>28766.0</v>
       </c>
       <c r="J44" t="n" s="6">
-        <v>39897.0</v>
+        <v>40001.0</v>
       </c>
     </row>
     <row r="45">
@@ -1892,31 +1892,31 @@
         <v>61</v>
       </c>
       <c r="B45" t="n" s="8">
-        <v>395222.0</v>
+        <v>396406.0</v>
       </c>
       <c r="C45" t="n" s="9">
-        <v>2.223596514413921</v>
+        <v>2.2236247125781374</v>
       </c>
       <c r="D45" t="n" s="8">
-        <v>153300.0</v>
+        <v>153744.0</v>
       </c>
       <c r="E45" t="n" s="9">
-        <v>0.8624958774047348</v>
+        <v>0.862421249452867</v>
       </c>
       <c r="F45" t="n" s="8">
-        <v>175372.0</v>
+        <v>175881.0</v>
       </c>
       <c r="G45" t="n" s="9">
-        <v>0.9866772799231778</v>
+        <v>0.986597927561529</v>
       </c>
       <c r="H45" t="n" s="10">
-        <v>51576.0</v>
+        <v>51714.0</v>
       </c>
       <c r="I45" t="n" s="10">
-        <v>10812.0</v>
+        <v>10836.0</v>
       </c>
       <c r="J45" t="n" s="10">
-        <v>15233.0</v>
+        <v>15275.0</v>
       </c>
     </row>
     <row r="46">
@@ -1924,31 +1924,31 @@
         <v>62</v>
       </c>
       <c r="B46" t="n" s="6">
-        <v>347037.0</v>
+        <v>348025.0</v>
       </c>
       <c r="C46" t="n" s="7">
-        <v>1.9524982505342916</v>
+        <v>1.952233292621722</v>
       </c>
       <c r="D46" t="n" s="6">
-        <v>312122.0</v>
+        <v>313035.0</v>
       </c>
       <c r="E46" t="n" s="7">
-        <v>1.7560596102238788</v>
+        <v>1.75595818908366</v>
       </c>
       <c r="F46" t="n" s="6">
-        <v>83443.0</v>
+        <v>83720.0</v>
       </c>
       <c r="G46" t="n" s="7">
-        <v>0.4694666894865185</v>
+        <v>0.469624226013334</v>
       </c>
       <c r="H46" t="n" s="6">
-        <v>40040.0</v>
+        <v>40139.0</v>
       </c>
       <c r="I46" t="n" s="6">
-        <v>33164.0</v>
+        <v>33262.0</v>
       </c>
       <c r="J46" t="n" s="6">
-        <v>6354.0</v>
+        <v>6371.0</v>
       </c>
     </row>
     <row r="47">
@@ -1956,31 +1956,31 @@
         <v>63</v>
       </c>
       <c r="B47" t="n" s="8">
-        <v>133923.0</v>
+        <v>134306.0</v>
       </c>
       <c r="C47" t="n" s="9">
-        <v>0.7534770736443203</v>
+        <v>0.7533845114542146</v>
       </c>
       <c r="D47" t="n" s="8">
-        <v>197337.0</v>
+        <v>197903.0</v>
       </c>
       <c r="E47" t="n" s="9">
-        <v>1.1102566794482591</v>
+        <v>1.110129517447645</v>
       </c>
       <c r="F47" t="n" s="8">
-        <v>118873.0</v>
+        <v>119202.0</v>
       </c>
       <c r="G47" t="n" s="9">
-        <v>0.6688028208397457</v>
+        <v>0.6686591852513312</v>
       </c>
       <c r="H47" t="n" s="10">
-        <v>24796.0</v>
+        <v>24860.0</v>
       </c>
       <c r="I47" t="n" s="10">
-        <v>41387.0</v>
+        <v>41505.0</v>
       </c>
       <c r="J47" t="n" s="10">
-        <v>16499.0</v>
+        <v>16540.0</v>
       </c>
     </row>
     <row r="48">
@@ -1988,31 +1988,31 @@
         <v>64</v>
       </c>
       <c r="B48" t="n" s="6">
-        <v>151583.0</v>
+        <v>151977.0</v>
       </c>
       <c r="C48" t="n" s="7">
-        <v>0.8528356985299537</v>
+        <v>0.8525093286768809</v>
       </c>
       <c r="D48" t="n" s="6">
-        <v>256933.0</v>
+        <v>257672.0</v>
       </c>
       <c r="E48" t="n" s="7">
-        <v>1.4455554681619747</v>
+        <v>1.445401499824508</v>
       </c>
       <c r="F48" t="n" s="6">
-        <v>70619.0</v>
+        <v>70805.0</v>
       </c>
       <c r="G48" t="n" s="7">
-        <v>0.39731634942234156</v>
+        <v>0.3971780138900396</v>
       </c>
       <c r="H48" t="n" s="6">
-        <v>26293.0</v>
+        <v>26365.0</v>
       </c>
       <c r="I48" t="n" s="6">
-        <v>48663.0</v>
+        <v>48794.0</v>
       </c>
       <c r="J48" t="n" s="6">
-        <v>13844.0</v>
+        <v>13885.0</v>
       </c>
     </row>
     <row r="49">
@@ -2020,31 +2020,31 @@
         <v>65</v>
       </c>
       <c r="B49" t="n" s="8">
-        <v>354241.0</v>
+        <v>355275.0</v>
       </c>
       <c r="C49" t="n" s="9">
-        <v>1.9930293679564948</v>
+        <v>1.9929018979561306</v>
       </c>
       <c r="D49" t="n" s="8">
-        <v>304515.0</v>
+        <v>305444.0</v>
       </c>
       <c r="E49" t="n" s="9">
-        <v>1.7132611357332213</v>
+        <v>1.7133767569328333</v>
       </c>
       <c r="F49" t="n" s="8">
-        <v>231681.0</v>
+        <v>232393.0</v>
       </c>
       <c r="G49" t="n" s="9">
-        <v>1.303482761728678</v>
+        <v>1.303599889583334</v>
       </c>
       <c r="H49" t="n" s="10">
-        <v>36050.0</v>
+        <v>36148.0</v>
       </c>
       <c r="I49" t="n" s="10">
-        <v>28402.0</v>
+        <v>28479.0</v>
       </c>
       <c r="J49" t="n" s="10">
-        <v>13713.0</v>
+        <v>13753.0</v>
       </c>
     </row>
     <row r="50">
@@ -2055,28 +2055,28 @@
         <v>297.0</v>
       </c>
       <c r="C50" t="n" s="7">
-        <v>0.00167098027129293</v>
+        <v>0.0016660104530095581</v>
       </c>
       <c r="D50" t="n" s="6">
-        <v>435461.0</v>
+        <v>436818.0</v>
       </c>
       <c r="E50" t="n" s="7">
-        <v>2.4499890232912143</v>
+        <v>2.4503143234435325</v>
       </c>
       <c r="F50" t="n" s="6">
-        <v>449644.0</v>
+        <v>450990.0</v>
       </c>
       <c r="G50" t="n" s="7">
-        <v>2.5297853639907015</v>
+        <v>2.529811630312393</v>
       </c>
       <c r="H50" t="n" s="6">
-        <v>1116.0</v>
+        <v>1124.0</v>
       </c>
       <c r="I50" t="n" s="6">
-        <v>35394.0</v>
+        <v>35508.0</v>
       </c>
       <c r="J50" t="n" s="6">
-        <v>35432.0</v>
+        <v>35521.0</v>
       </c>
     </row>
     <row r="51">
@@ -2084,31 +2084,31 @@
         <v>67</v>
       </c>
       <c r="B51" t="n" s="8">
-        <v>134332.0</v>
+        <v>134714.0</v>
       </c>
       <c r="C51" t="n" s="9">
-        <v>0.7557781878899728</v>
+        <v>0.7556731722785509</v>
       </c>
       <c r="D51" t="n" s="8">
-        <v>264438.0</v>
+        <v>265250.0</v>
       </c>
       <c r="E51" t="n" s="9">
-        <v>1.487780070640269</v>
+        <v>1.487910008958873</v>
       </c>
       <c r="F51" t="n" s="8">
-        <v>325512.0</v>
+        <v>326480.0</v>
       </c>
       <c r="G51" t="n" s="9">
-        <v>1.8313943773370516</v>
+        <v>1.83137741649347</v>
       </c>
       <c r="H51" t="n" s="10">
-        <v>6332.0</v>
+        <v>6352.0</v>
       </c>
       <c r="I51" t="n" s="10">
-        <v>28462.0</v>
+        <v>28549.0</v>
       </c>
       <c r="J51" t="n" s="10">
-        <v>42648.0</v>
+        <v>42753.0</v>
       </c>
     </row>
     <row r="52">
@@ -2119,28 +2119,28 @@
         <v>47.0</v>
       </c>
       <c r="C52" t="n" s="7">
-        <v>2.6443122138305634E-4</v>
+        <v>2.636447518230614E-4</v>
       </c>
       <c r="D52" t="n" s="6">
-        <v>487702.0</v>
+        <v>489113.0</v>
       </c>
       <c r="E52" t="n" s="7">
-        <v>2.7439071389565814</v>
+        <v>2.743661180817724</v>
       </c>
       <c r="F52" t="n" s="6">
-        <v>272794.0</v>
+        <v>273594.0</v>
       </c>
       <c r="G52" t="n" s="7">
-        <v>1.5347925660844566</v>
+        <v>1.5347153666016735</v>
       </c>
       <c r="H52" t="n" s="6">
-        <v>1089.0</v>
+        <v>1098.0</v>
       </c>
       <c r="I52" t="n" s="6">
-        <v>52163.0</v>
+        <v>52302.0</v>
       </c>
       <c r="J52" t="n" s="6">
-        <v>16175.0</v>
+        <v>16227.0</v>
       </c>
     </row>
     <row r="53">
@@ -2148,31 +2148,31 @@
         <v>69</v>
       </c>
       <c r="B53" t="n" s="8">
-        <v>508556.0</v>
+        <v>510120.0</v>
       </c>
       <c r="C53" t="n" s="9">
-        <v>2.8612358345038635</v>
+        <v>2.8614991659570226</v>
       </c>
       <c r="D53" t="n" s="8">
-        <v>437554.0</v>
+        <v>438875.0</v>
       </c>
       <c r="E53" t="n" s="9">
-        <v>2.46176465193706</v>
+        <v>2.461852988432895</v>
       </c>
       <c r="F53" t="n" s="8">
-        <v>617352.0</v>
+        <v>619332.0</v>
       </c>
       <c r="G53" t="n" s="9">
-        <v>3.473343476239842</v>
+        <v>3.474119817788942</v>
       </c>
       <c r="H53" t="n" s="10">
-        <v>17157.0</v>
+        <v>17195.0</v>
       </c>
       <c r="I53" t="n" s="10">
-        <v>18359.0</v>
+        <v>18400.0</v>
       </c>
       <c r="J53" t="n" s="10">
-        <v>38533.0</v>
+        <v>38653.0</v>
       </c>
     </row>
     <row r="54">
@@ -2180,31 +2180,31 @@
         <v>70</v>
       </c>
       <c r="B54" t="n" s="6">
-        <v>270242.0</v>
+        <v>271113.0</v>
       </c>
       <c r="C54" t="n" s="7">
-        <v>1.5204345133829766</v>
+        <v>1.520798289383099</v>
       </c>
       <c r="D54" t="n" s="6">
-        <v>267900.0</v>
+        <v>268758.0</v>
       </c>
       <c r="E54" t="n" s="7">
-        <v>1.507257961883421</v>
+        <v>1.507588004477922</v>
       </c>
       <c r="F54" t="n" s="6">
-        <v>439442.0</v>
+        <v>440848.0</v>
       </c>
       <c r="G54" t="n" s="7">
-        <v>2.4723869103619793</v>
+        <v>2.472920458546659</v>
       </c>
       <c r="H54" t="n" s="6">
-        <v>22411.0</v>
+        <v>22466.0</v>
       </c>
       <c r="I54" t="n" s="6">
-        <v>17933.0</v>
+        <v>17978.0</v>
       </c>
       <c r="J54" t="n" s="6">
-        <v>40910.0</v>
+        <v>41022.0</v>
       </c>
     </row>
     <row r="55">
@@ -2212,31 +2212,31 @@
         <v>71</v>
       </c>
       <c r="B55" t="n" s="8">
-        <v>232622.0</v>
+        <v>233307.0</v>
       </c>
       <c r="C55" t="n" s="9">
-        <v>1.3087770123525388</v>
+        <v>1.3087269385868718</v>
       </c>
       <c r="D55" t="n" s="8">
-        <v>201384.0</v>
+        <v>201971.0</v>
       </c>
       <c r="E55" t="n" s="9">
-        <v>1.1330258954682002</v>
+        <v>1.1329488121373517</v>
       </c>
       <c r="F55" t="n" s="8">
-        <v>349183.0</v>
+        <v>350199.0</v>
       </c>
       <c r="G55" t="n" s="9">
-        <v>1.9645720675787182</v>
+        <v>1.96442826475924</v>
       </c>
       <c r="H55" t="n" s="10">
-        <v>18244.0</v>
+        <v>18289.0</v>
       </c>
       <c r="I55" t="n" s="10">
-        <v>19262.0</v>
+        <v>19315.0</v>
       </c>
       <c r="J55" t="n" s="10">
-        <v>44579.0</v>
+        <v>44705.0</v>
       </c>
     </row>
     <row r="56">
@@ -2244,31 +2244,31 @@
         <v>72</v>
       </c>
       <c r="B56" t="n" s="6">
-        <v>144465.0</v>
+        <v>144877.0</v>
       </c>
       <c r="C56" t="n" s="7">
-        <v>0.8127884339809198</v>
+        <v>0.8126821427631844</v>
       </c>
       <c r="D56" t="n" s="6">
-        <v>205655.0</v>
+        <v>206279.0</v>
       </c>
       <c r="E56" t="n" s="7">
-        <v>1.1570553794368605</v>
+        <v>1.1571143779001976</v>
       </c>
       <c r="F56" t="n" s="6">
-        <v>277833.0</v>
+        <v>278692.0</v>
       </c>
       <c r="G56" t="n" s="7">
-        <v>1.5631429687344398</v>
+        <v>1.5633124079802687</v>
       </c>
       <c r="H56" t="n" s="6">
-        <v>14414.0</v>
+        <v>14439.0</v>
       </c>
       <c r="I56" t="n" s="6">
-        <v>27405.0</v>
+        <v>27479.0</v>
       </c>
       <c r="J56" t="n" s="6">
-        <v>41374.0</v>
+        <v>41489.0</v>
       </c>
     </row>
     <row r="57">
@@ -2276,31 +2276,31 @@
         <v>73</v>
       </c>
       <c r="B57" t="n" s="8">
-        <v>384927.0</v>
+        <v>386059.0</v>
       </c>
       <c r="C57" t="n" s="9">
-        <v>2.165674824538632</v>
+        <v>2.165583600937431</v>
       </c>
       <c r="D57" t="n" s="8">
-        <v>272535.0</v>
+        <v>273285.0</v>
       </c>
       <c r="E57" t="n" s="9">
-        <v>1.53333538126875</v>
+        <v>1.5329820425950071</v>
       </c>
       <c r="F57" t="n" s="8">
-        <v>469948.0</v>
+        <v>471260.0</v>
       </c>
       <c r="G57" t="n" s="9">
-        <v>2.6440196516281818</v>
+        <v>2.643515441364594</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>24817.0</v>
+        <v>24902.0</v>
       </c>
       <c r="I57" t="n" s="10">
-        <v>13461.0</v>
+        <v>13503.0</v>
       </c>
       <c r="J57" t="n" s="10">
-        <v>37315.0</v>
+        <v>37420.0</v>
       </c>
     </row>
     <row r="58">
@@ -2311,28 +2311,28 @@
         <v>131.0</v>
       </c>
       <c r="C58" t="n" s="7">
-        <v>7.370317021527739E-4</v>
+        <v>7.348396274217243E-4</v>
       </c>
       <c r="D58" t="n" s="6">
-        <v>398802.0</v>
+        <v>399970.0</v>
       </c>
       <c r="E58" t="n" s="7">
-        <v>2.24373829680863</v>
+        <v>2.2436168380142525</v>
       </c>
       <c r="F58" t="n" s="6">
-        <v>549759.0</v>
+        <v>551451.0</v>
       </c>
       <c r="G58" t="n" s="7">
-        <v>3.0930519965176098</v>
+        <v>3.0933438731399794</v>
       </c>
       <c r="H58" t="n" s="6">
-        <v>3198.0</v>
+        <v>3207.0</v>
       </c>
       <c r="I58" t="n" s="6">
-        <v>35680.0</v>
+        <v>35775.0</v>
       </c>
       <c r="J58" t="n" s="6">
-        <v>35293.0</v>
+        <v>35397.0</v>
       </c>
     </row>
     <row r="59">
@@ -2340,31 +2340,31 @@
         <v>75</v>
       </c>
       <c r="B59" t="n" s="8">
-        <v>62057.0</v>
+        <v>62233.0</v>
       </c>
       <c r="C59" t="n" s="9">
-        <v>0.3491448575610282</v>
+        <v>0.34909369872775703</v>
       </c>
       <c r="D59" t="n" s="8">
-        <v>154174.0</v>
+        <v>154604.0</v>
       </c>
       <c r="E59" t="n" s="9">
-        <v>0.8674131728832196</v>
+        <v>0.8672453874649485</v>
       </c>
       <c r="F59" t="n" s="8">
-        <v>318081.0</v>
+        <v>319051.0</v>
       </c>
       <c r="G59" t="n" s="9">
-        <v>1.7895861133775306</v>
+        <v>1.789704717317012</v>
       </c>
       <c r="H59" t="n" s="10">
-        <v>8669.0</v>
+        <v>8687.0</v>
       </c>
       <c r="I59" t="n" s="10">
-        <v>23008.0</v>
+        <v>23063.0</v>
       </c>
       <c r="J59" t="n" s="10">
-        <v>51761.0</v>
+        <v>51913.0</v>
       </c>
     </row>
     <row r="60">
@@ -2372,31 +2372,31 @@
         <v>76</v>
       </c>
       <c r="B60" t="n" s="6">
-        <v>316042.0</v>
+        <v>317011.0</v>
       </c>
       <c r="C60" t="n" s="7">
-        <v>1.7781142993264654</v>
+        <v>1.77826141319533</v>
       </c>
       <c r="D60" t="n" s="6">
-        <v>362691.0</v>
+        <v>363747.0</v>
       </c>
       <c r="E60" t="n" s="7">
-        <v>2.0405707258434482</v>
+        <v>2.0404252668379383</v>
       </c>
       <c r="F60" t="n" s="6">
-        <v>409988.0</v>
+        <v>411215.0</v>
       </c>
       <c r="G60" t="n" s="7">
-        <v>2.3066729274977975</v>
+        <v>2.306695247253621</v>
       </c>
       <c r="H60" t="n" s="6">
-        <v>16771.0</v>
+        <v>16814.0</v>
       </c>
       <c r="I60" t="n" s="6">
-        <v>30531.0</v>
+        <v>30607.0</v>
       </c>
       <c r="J60" t="n" s="6">
-        <v>28859.0</v>
+        <v>28939.0</v>
       </c>
     </row>
     <row r="61">
@@ -2404,31 +2404,31 @@
         <v>77</v>
       </c>
       <c r="B61" t="n" s="8">
-        <v>148584.0</v>
+        <v>149013.0</v>
       </c>
       <c r="C61" t="n" s="9">
-        <v>0.8359627361272348</v>
+        <v>0.8358828809236137</v>
       </c>
       <c r="D61" t="n" s="8">
-        <v>178145.0</v>
+        <v>178706.0</v>
       </c>
       <c r="E61" t="n" s="9">
-        <v>1.002278721984778</v>
+        <v>1.0024446599849364</v>
       </c>
       <c r="F61" t="n" s="8">
-        <v>375989.0</v>
+        <v>377042.0</v>
       </c>
       <c r="G61" t="n" s="9">
-        <v>2.1153878829062545</v>
+        <v>2.1150030748270363</v>
       </c>
       <c r="H61" t="n" s="10">
-        <v>14307.0</v>
+        <v>14337.0</v>
       </c>
       <c r="I61" t="n" s="10">
-        <v>18609.0</v>
+        <v>18660.0</v>
       </c>
       <c r="J61" t="n" s="10">
-        <v>49350.0</v>
+        <v>49485.0</v>
       </c>
     </row>
     <row r="62">
@@ -2436,31 +2436,31 @@
         <v>78</v>
       </c>
       <c r="B62" t="n" s="6">
-        <v>565331.0</v>
+        <v>567020.0</v>
       </c>
       <c r="C62" t="n" s="7">
-        <v>3.180663123738396</v>
+        <v>3.1806775995470695</v>
       </c>
       <c r="D62" t="n" s="6">
-        <v>388742.0</v>
+        <v>389922.0</v>
       </c>
       <c r="E62" t="n" s="7">
-        <v>2.187138763040257</v>
+        <v>2.187252955752165</v>
       </c>
       <c r="F62" t="n" s="6">
-        <v>278588.0</v>
+        <v>279466.0</v>
       </c>
       <c r="G62" t="n" s="7">
-        <v>1.5673907468651678</v>
+        <v>1.567654132191142</v>
       </c>
       <c r="H62" t="n" s="6">
-        <v>44737.0</v>
+        <v>44858.0</v>
       </c>
       <c r="I62" t="n" s="6">
-        <v>18798.0</v>
+        <v>18847.0</v>
       </c>
       <c r="J62" t="n" s="6">
-        <v>9100.0</v>
+        <v>9127.0</v>
       </c>
     </row>
     <row r="63">
@@ -2468,31 +2468,31 @@
         <v>79</v>
       </c>
       <c r="B63" t="n" s="8">
-        <v>383209.0</v>
+        <v>384305.0</v>
       </c>
       <c r="C63" t="n" s="9">
-        <v>2.1560090194676516</v>
+        <v>2.1557446031779066</v>
       </c>
       <c r="D63" t="n" s="8">
-        <v>568129.0</v>
+        <v>569753.0</v>
       </c>
       <c r="E63" t="n" s="9">
-        <v>3.196405220704987</v>
+        <v>3.1960082613924405</v>
       </c>
       <c r="F63" t="n" s="8">
-        <v>451887.0</v>
+        <v>453262.0</v>
       </c>
       <c r="G63" t="n" s="9">
-        <v>2.542404922066493</v>
+        <v>2.5425563298047753</v>
       </c>
       <c r="H63" t="n" s="10">
-        <v>13803.0</v>
+        <v>13835.0</v>
       </c>
       <c r="I63" t="n" s="10">
-        <v>40743.0</v>
+        <v>40849.0</v>
       </c>
       <c r="J63" t="n" s="10">
-        <v>18534.0</v>
+        <v>18601.0</v>
       </c>
     </row>
     <row r="64">
@@ -2500,31 +2500,31 @@
         <v>80</v>
       </c>
       <c r="B64" t="n" s="6">
-        <v>403013.0</v>
+        <v>404190.0</v>
       </c>
       <c r="C64" t="n" s="7">
-        <v>2.2674302090053122</v>
+        <v>2.2672887710502807</v>
       </c>
       <c r="D64" t="n" s="6">
-        <v>580200.0</v>
+        <v>581930.0</v>
       </c>
       <c r="E64" t="n" s="7">
-        <v>3.2643190350308355</v>
+        <v>3.2643146899658326</v>
       </c>
       <c r="F64" t="n" s="6">
-        <v>246827.0</v>
+        <v>247539.0</v>
       </c>
       <c r="G64" t="n" s="7">
-        <v>1.3886971293684178</v>
+        <v>1.3885608132240168</v>
       </c>
       <c r="H64" t="n" s="6">
-        <v>22752.0</v>
+        <v>22803.0</v>
       </c>
       <c r="I64" t="n" s="6">
-        <v>42848.0</v>
+        <v>42967.0</v>
       </c>
       <c r="J64" t="n" s="6">
-        <v>10376.0</v>
+        <v>10408.0</v>
       </c>
     </row>
     <row r="65">
@@ -2532,31 +2532,31 @@
         <v>81</v>
       </c>
       <c r="B65" t="n" s="8">
-        <v>684669.0</v>
+        <v>686604.0</v>
       </c>
       <c r="C65" t="n" s="9">
-        <v>3.852082125810974</v>
+        <v>3.851479599589814</v>
       </c>
       <c r="D65" t="n" s="8">
-        <v>618703.0</v>
+        <v>620472.0</v>
       </c>
       <c r="E65" t="n" s="9">
-        <v>3.480944467305555</v>
+        <v>3.480514605386352</v>
       </c>
       <c r="F65" t="n" s="8">
-        <v>874481.0</v>
+        <v>876993.0</v>
       </c>
       <c r="G65" t="n" s="9">
-        <v>4.920001678856946</v>
+        <v>4.919459613522598</v>
       </c>
       <c r="H65" t="n" s="10">
-        <v>14930.0</v>
+        <v>14962.0</v>
       </c>
       <c r="I65" t="n" s="10">
-        <v>15549.0</v>
+        <v>15591.0</v>
       </c>
       <c r="J65" t="n" s="10">
-        <v>43481.0</v>
+        <v>43612.0</v>
       </c>
     </row>
     <row r="67">
@@ -2564,31 +2564,31 @@
         <v>82</v>
       </c>
       <c r="B67" t="n" s="8">
-        <v>1.7773998E7</v>
+        <v>1.7827019E7</v>
       </c>
       <c r="C67" t="n" s="9">
-        <v>100.00000000000001</v>
+        <v>100.0</v>
       </c>
       <c r="D67" t="n" s="8">
-        <v>1.7773998E7</v>
+        <v>1.7827019E7</v>
       </c>
       <c r="E67" t="n" s="9">
         <v>100.0</v>
       </c>
       <c r="F67" t="n" s="8">
-        <v>1.7773998E7</v>
+        <v>1.7827019E7</v>
       </c>
       <c r="G67" t="n" s="9">
         <v>100.0</v>
       </c>
       <c r="H67" t="n" s="8">
-        <v>4445414.0</v>
+        <v>4458650.0</v>
       </c>
       <c r="I67" t="n" s="8">
-        <v>4420136.0</v>
+        <v>4433457.0</v>
       </c>
       <c r="J67" t="n" s="8">
-        <v>4426095.0</v>
+        <v>4439489.0</v>
       </c>
     </row>
     <row r="68"/>
@@ -2597,16 +2597,16 @@
         <v>83</v>
       </c>
       <c r="B71" t="n" s="15">
-        <v>2742724.0</v>
+        <v>2750939.0</v>
       </c>
       <c r="C71" t="n" s="16">
-        <v>10.28109998972911</v>
+        <v>10.281227135581746</v>
       </c>
       <c r="D71" t="n" s="15">
-        <v>2754317.0</v>
+        <v>2762725.0</v>
       </c>
       <c r="E71" t="n" s="16">
-        <v>10.324556346322385</v>
+        <v>10.3252755652343</v>
       </c>
     </row>
     <row r="72">
@@ -2614,16 +2614,16 @@
         <v>84</v>
       </c>
       <c r="B72" t="n" s="13">
-        <v>1163356.0</v>
+        <v>1166844.0</v>
       </c>
       <c r="C72" t="n" s="14">
-        <v>4.360839573960522</v>
+        <v>4.360906656160223</v>
       </c>
       <c r="D72" t="n" s="13">
-        <v>1157669.0</v>
+        <v>1161270.0</v>
       </c>
       <c r="E72" t="n" s="14">
-        <v>4.339521856376985</v>
+        <v>4.3400746565943535</v>
       </c>
     </row>
     <row r="73">
@@ -2631,16 +2631,16 @@
         <v>85</v>
       </c>
       <c r="B73" t="n" s="15">
-        <v>1508195.0</v>
+        <v>1512646.0</v>
       </c>
       <c r="C73" t="n" s="16">
-        <v>5.653468449253187</v>
+        <v>5.653290422553603</v>
       </c>
       <c r="D73" t="n" s="15">
-        <v>1530267.0</v>
+        <v>1534610.0</v>
       </c>
       <c r="E73" t="n" s="16">
-        <v>5.736205333815141</v>
+        <v>5.735377619981797</v>
       </c>
     </row>
     <row r="74">
@@ -2648,16 +2648,16 @@
         <v>86</v>
       </c>
       <c r="B74" t="n" s="13">
-        <v>2639814.0</v>
+        <v>2648098.0</v>
       </c>
       <c r="C74" t="n" s="14">
-        <v>9.895341889408764</v>
+        <v>9.896874127445122</v>
       </c>
       <c r="D74" t="n" s="13">
-        <v>2573207.0</v>
+        <v>2581250.0</v>
       </c>
       <c r="E74" t="n" s="14">
-        <v>9.645665572354666</v>
+        <v>9.64703962673123</v>
       </c>
     </row>
     <row r="75">
@@ -2665,16 +2665,16 @@
         <v>87</v>
       </c>
       <c r="B75" t="n" s="15">
-        <v>1399610.0</v>
+        <v>1404033.0</v>
       </c>
       <c r="C75" t="n" s="16">
-        <v>5.246437613345258</v>
+        <v>5.247365419172234</v>
       </c>
       <c r="D75" t="n" s="15">
-        <v>1427389.0</v>
+        <v>1431702.0</v>
       </c>
       <c r="E75" t="n" s="16">
-        <v>5.35056718548401</v>
+        <v>5.350774209266966</v>
       </c>
     </row>
     <row r="76">
@@ -2682,16 +2682,16 @@
         <v>88</v>
       </c>
       <c r="B76" t="n" s="13">
-        <v>997094.0</v>
+        <v>1000024.0</v>
       </c>
       <c r="C76" t="n" s="14">
-        <v>3.7376065229891737</v>
+        <v>3.737441609949548</v>
       </c>
       <c r="D76" t="n" s="13">
-        <v>998744.0</v>
+        <v>1001572.0</v>
       </c>
       <c r="E76" t="n" s="14">
-        <v>3.7437915474331396</v>
+        <v>3.7432270307116515</v>
       </c>
     </row>
     <row r="77">
@@ -2699,16 +2699,16 @@
         <v>89</v>
       </c>
       <c r="B77" t="n" s="15">
-        <v>856129.0</v>
+        <v>858708.0</v>
       </c>
       <c r="C77" t="n" s="16">
-        <v>3.2091992679929855</v>
+        <v>3.20929398694087</v>
       </c>
       <c r="D77" t="n" s="15">
-        <v>850712.0</v>
+        <v>853216.0</v>
       </c>
       <c r="E77" t="n" s="16">
-        <v>3.1888936453184615</v>
+        <v>3.1887684502319082</v>
       </c>
     </row>
     <row r="78">
@@ -2716,16 +2716,16 @@
         <v>90</v>
       </c>
       <c r="B78" t="n" s="13">
-        <v>1497919.0</v>
+        <v>1502285.0</v>
       </c>
       <c r="C78" t="n" s="14">
-        <v>5.614948866716097</v>
+        <v>5.614567719377792</v>
       </c>
       <c r="D78" t="n" s="13">
-        <v>1512983.0</v>
+        <v>1517196.0</v>
       </c>
       <c r="E78" t="n" s="14">
-        <v>5.671416265639677</v>
+        <v>5.6702953737600446</v>
       </c>
     </row>
     <row r="79">
@@ -2733,16 +2733,16 @@
         <v>91</v>
       </c>
       <c r="B79" t="n" s="15">
-        <v>1894205.0</v>
+        <v>1899824.0</v>
       </c>
       <c r="C79" t="n" s="16">
-        <v>7.10042680417163</v>
+        <v>7.100310861720109</v>
       </c>
       <c r="D79" t="n" s="15">
-        <v>1856883.0</v>
+        <v>1862625.0</v>
       </c>
       <c r="E79" t="n" s="16">
-        <v>6.960525299748775</v>
+        <v>6.961285107889688</v>
       </c>
     </row>
     <row r="80">
@@ -2750,16 +2750,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="n" s="13">
-        <v>869254.0</v>
+        <v>871636.0</v>
       </c>
       <c r="C80" t="n" s="14">
-        <v>3.2583983260699902</v>
+        <v>3.2576104724786448</v>
       </c>
       <c r="D80" t="n" s="13">
-        <v>838277.0</v>
+        <v>840692.0</v>
       </c>
       <c r="E80" t="n" s="14">
-        <v>3.1422810520089337</v>
+        <v>3.141961854867189</v>
       </c>
     </row>
     <row r="81">
@@ -2767,16 +2767,16 @@
         <v>93</v>
       </c>
       <c r="B81" t="n" s="15">
-        <v>1478634.0</v>
+        <v>1483014.0</v>
       </c>
       <c r="C81" t="n" s="16">
-        <v>5.542659050714952</v>
+        <v>5.542545210652664</v>
       </c>
       <c r="D81" t="n" s="15">
-        <v>1444258.0</v>
+        <v>1448483.0</v>
       </c>
       <c r="E81" t="n" s="16">
-        <v>5.413800626299324</v>
+        <v>5.41349071172747</v>
       </c>
     </row>
     <row r="82">
@@ -2784,16 +2784,16 @@
         <v>94</v>
       </c>
       <c r="B82" t="n" s="13">
-        <v>1253323.0</v>
+        <v>1256989.0</v>
       </c>
       <c r="C82" t="n" s="14">
-        <v>4.698080843142533</v>
+        <v>4.697810244403007</v>
       </c>
       <c r="D82" t="n" s="13">
-        <v>1308984.0</v>
+        <v>1312768.0</v>
       </c>
       <c r="E82" t="n" s="14">
-        <v>4.906726082885325</v>
+        <v>4.906275996786326</v>
       </c>
     </row>
     <row r="83">
@@ -2801,16 +2801,16 @@
         <v>95</v>
       </c>
       <c r="B83" t="n" s="15">
-        <v>1978921.0</v>
+        <v>1985059.0</v>
       </c>
       <c r="C83" t="n" s="16">
-        <v>7.417984701623176</v>
+        <v>7.41886405206759</v>
       </c>
       <c r="D83" t="n" s="15">
-        <v>1976877.0</v>
+        <v>1982742.0</v>
       </c>
       <c r="E83" t="n" s="16">
-        <v>7.410322768311984</v>
+        <v>7.410204607684003</v>
       </c>
     </row>
     <row r="84">
@@ -2818,16 +2818,16 @@
         <v>96</v>
       </c>
       <c r="B84" t="n" s="13">
-        <v>1760124.0</v>
+        <v>1765182.0</v>
       </c>
       <c r="C84" t="n" s="14">
-        <v>6.597824220855602</v>
+        <v>6.597106325382154</v>
       </c>
       <c r="D84" t="n" s="13">
-        <v>1756012.0</v>
+        <v>1761466.0</v>
       </c>
       <c r="E84" t="n" s="14">
-        <v>6.582410390241305</v>
+        <v>6.583218325671575</v>
       </c>
     </row>
     <row r="85">
@@ -2835,16 +2835,16 @@
         <v>97</v>
       </c>
       <c r="B85" t="n" s="15">
-        <v>1605444.0</v>
+        <v>1610200.0</v>
       </c>
       <c r="C85" t="n" s="16">
-        <v>6.018006292981235</v>
+        <v>6.017884051123536</v>
       </c>
       <c r="D85" t="n" s="15">
-        <v>1679576.0</v>
+        <v>1684572.0</v>
       </c>
       <c r="E85" t="n" s="16">
-        <v>6.295890069999483</v>
+        <v>6.295838387634628</v>
       </c>
     </row>
     <row r="86">
@@ -2852,16 +2852,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n" s="13">
-        <v>3032594.0</v>
+        <v>3041432.0</v>
       </c>
       <c r="C86" t="n" s="14">
-        <v>11.367677587045785</v>
+        <v>11.366901704991154</v>
       </c>
       <c r="D86" t="n" s="13">
-        <v>3011185.0</v>
+        <v>3020024.0</v>
       </c>
       <c r="E86" t="n" s="14">
-        <v>11.287425957760407</v>
+        <v>11.28689247522687</v>
       </c>
     </row>
     <row r="88">
@@ -2869,16 +2869,16 @@
         <v>82</v>
       </c>
       <c r="B88" t="n" s="15">
-        <v>2.667734E7</v>
+        <v>2.6756913E7</v>
       </c>
       <c r="C88" t="n" s="16">
         <v>100.0</v>
       </c>
       <c r="D88" t="n" s="15">
-        <v>2.667734E7</v>
+        <v>2.6756913E7</v>
       </c>
       <c r="E88" t="n" s="16">
-        <v>100.00000000000001</v>
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>
